--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dim-Dim\MyData\Common Work Place\Projects\PsyChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C512F0CB-38B5-4418-99C2-3BC95D530A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ECAFE9-78B8-4B7B-B99E-1CB3AA337C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-11175" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,9 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -496,7 +494,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -512,7 +510,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -528,7 +526,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -576,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -608,7 +606,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -640,7 +638,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -648,7 +646,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -664,7 +662,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
